--- a/data/trans_orig/IP16A12_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A12_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58313781-B788-404F-8E7D-2D9BDB56F808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A805AD35-E8D5-4905-8F97-9F9426F37E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1FFE5F56-0105-4E3C-98FA-DF0D44DCFB29}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3EDCA352-1F32-4F9E-9D4B-8D5CC63574E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Menores según si ha consumido medicinas para bajar la fiebre en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>33,58%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
   </si>
   <si>
     <t>8,63%</t>
@@ -86,16 +86,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,43%</t>
+    <t>30,01%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>66,42%</t>
   </si>
   <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>91,37%</t>
   </si>
   <si>
-    <t>70,57%</t>
+    <t>69,99%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -122,10 +122,10 @@
     <t>77,68%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>16,37%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
+    <t>11,19%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>88,81%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +188,109 @@
     <t>26,82%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>81,52%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67487CBA-3874-42FF-9584-65372FC8AB00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA5060A-4005-4F51-974A-18C9E405B1E3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -996,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -1005,13 +999,13 @@
         <v>12795</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -1020,13 +1014,13 @@
         <v>31529</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1041,13 +1035,13 @@
         <v>95683</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -1056,13 +1050,13 @@
         <v>90132</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>263</v>
@@ -1071,13 +1065,13 @@
         <v>185814</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1133,7 +1127,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1145,13 +1139,13 @@
         <v>11873</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -1160,13 +1154,13 @@
         <v>11575</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -1175,13 +1169,13 @@
         <v>23448</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1190,13 @@
         <v>32393</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -1211,13 +1205,13 @@
         <v>29780</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -1226,13 +1220,13 @@
         <v>62173</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,13 +1294,13 @@
         <v>35432</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -1315,13 +1309,13 @@
         <v>25390</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -1330,13 +1324,13 @@
         <v>60821</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,13 +1345,13 @@
         <v>137617</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -1366,13 +1360,13 @@
         <v>130708</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>380</v>
@@ -1381,13 +1375,13 @@
         <v>268325</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A12_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A12_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A805AD35-E8D5-4905-8F97-9F9426F37E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F53C503-17CB-4AE7-8C9A-69D2D85CF76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3EDCA352-1F32-4F9E-9D4B-8D5CC63574E4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7F600E64-551A-4E03-8BE6-32130BF6A387}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si ha consumido medicinas para bajar la fiebre en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>6,6%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA5060A-4005-4F51-974A-18C9E405B1E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7C0C28-377C-47A4-AD3F-A2492756EFA2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -823,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>4825</v>
+        <v>1006</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -838,10 +844,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>1019</v>
+        <v>4977</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>5844</v>
+        <v>5982</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -874,10 +880,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>9541</v>
+        <v>14224</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -889,10 +895,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>10797</v>
+        <v>10690</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +913,7 @@
         <v>27</v>
       </c>
       <c r="N5" s="7">
-        <v>20338</v>
+        <v>24915</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -925,25 +931,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15230</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
-        <v>14366</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
       <c r="I6" s="7">
-        <v>11816</v>
+        <v>15667</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +964,7 @@
         <v>36</v>
       </c>
       <c r="N6" s="7">
-        <v>26182</v>
+        <v>30897</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -978,10 +984,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>18734</v>
+        <v>13127</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -990,37 +996,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>12795</v>
+        <v>19231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
       </c>
       <c r="N7" s="7">
-        <v>31529</v>
+        <v>32358</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1029,49 +1035,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>124</v>
+      </c>
+      <c r="D8" s="7">
+        <v>109353</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
         <v>139</v>
       </c>
-      <c r="D8" s="7">
-        <v>95683</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
-        <v>124</v>
-      </c>
       <c r="I8" s="7">
-        <v>90132</v>
+        <v>100793</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>263</v>
       </c>
       <c r="N8" s="7">
-        <v>185814</v>
+        <v>210145</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1080,25 +1086,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>147</v>
+      </c>
+      <c r="D9" s="7">
+        <v>122480</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>174</v>
       </c>
-      <c r="D9" s="7">
-        <v>114417</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>147</v>
-      </c>
       <c r="I9" s="7">
-        <v>102927</v>
+        <v>120024</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1119,7 @@
         <v>321</v>
       </c>
       <c r="N9" s="7">
-        <v>217343</v>
+        <v>242503</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1127,55 +1133,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11536</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
-        <v>11873</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
       <c r="I10" s="7">
-        <v>11575</v>
+        <v>12528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>23448</v>
+        <v>24064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,49 +1190,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7">
+        <v>30106</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>42</v>
       </c>
-      <c r="D11" s="7">
-        <v>32393</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7">
-        <v>48</v>
-      </c>
       <c r="I11" s="7">
-        <v>29780</v>
+        <v>34490</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>62173</v>
+        <v>64597</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1235,25 +1241,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>66</v>
+      </c>
+      <c r="D12" s="7">
+        <v>41642</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>57</v>
       </c>
-      <c r="D12" s="7">
-        <v>44266</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>66</v>
-      </c>
       <c r="I12" s="7">
-        <v>41355</v>
+        <v>47018</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1274,7 @@
         <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>85621</v>
+        <v>88661</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1288,49 +1294,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25669</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="7">
         <v>57</v>
       </c>
-      <c r="D13" s="7">
-        <v>35432</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="7">
-        <v>43</v>
-      </c>
       <c r="I13" s="7">
-        <v>25390</v>
+        <v>36735</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>60821</v>
+        <v>62404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,49 +1345,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>186</v>
+      </c>
+      <c r="D14" s="7">
+        <v>153683</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7">
         <v>194</v>
       </c>
-      <c r="D14" s="7">
-        <v>137617</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="7">
-        <v>186</v>
-      </c>
       <c r="I14" s="7">
-        <v>130708</v>
+        <v>145974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>380</v>
       </c>
       <c r="N14" s="7">
-        <v>268325</v>
+        <v>299657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,25 +1396,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>229</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179352</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>251</v>
       </c>
-      <c r="D15" s="7">
-        <v>173049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>229</v>
-      </c>
       <c r="I15" s="7">
-        <v>156098</v>
+        <v>182709</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1429,7 @@
         <v>480</v>
       </c>
       <c r="N15" s="7">
-        <v>329146</v>
+        <v>362061</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
